--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="14.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.1796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.22339636500189619</v>
+        <v>0.29478922167271837</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29528298011199483</v>
+        <v>0.28326129097906816</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.051933718068368842</v>
+        <v>-0.011466009006632142</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0025490213326961001</v>
+        <v>0.0056468200978085133</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0037984356263016661</v>
+        <v>0.0020326198457189968</v>
       </c>
       <c r="G3" s="0">
-        <v>0.016401988186054886</v>
+        <v>-0.018566629269192118</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.0011941612969021893</v>
+        <v>1.6305690661561919e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0026439347084964652</v>
+        <v>-0.019381389969068817</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0033505497376861981</v>
+        <v>0.03019035191705377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.42483768788083565</v>
+        <v>0.55166538742924764</v>
       </c>
       <c r="C4" s="0">
-        <v>0.14235528715976484</v>
+        <v>0.1884137701294894</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0097199516172128513</v>
+        <v>0.026800116428825703</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0021746890910768583</v>
+        <v>-0.00042362398953061503</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0004762405706458928</v>
+        <v>0.00042296659465326244</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0063905296830599366</v>
+        <v>0.045493644287624806</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0036776440854853027</v>
+        <v>0.0032784213962288801</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0043366163331113317</v>
+        <v>0.004418801602888045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26920710551039306</v>
+        <v>0.62508673609978138</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.20521627108890445</v>
+        <v>0.012589335028306864</v>
       </c>
       <c r="E5" s="0">
-        <v>0.019870515756093492</v>
+        <v>0.016520997396336414</v>
       </c>
       <c r="F5" s="0">
-        <v>0.014409885994552299</v>
+        <v>0.018783132003944318</v>
       </c>
       <c r="G5" s="0">
-        <v>0.015021191040110642</v>
+        <v>0.042543691513745902</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0091385560482230999</v>
+        <v>-0.0020362215699644584</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0017365967818731448</v>
+        <v>-0.01502250156901996</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.010591056902390816</v>
+        <v>4.2915867184634138e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30089432562690771</v>
+        <v>0.29549054335861047</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.051705839478775946</v>
+        <v>-0.30294154841952642</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.05180904641697337</v>
+        <v>-0.00015954208870932432</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0066542560849696666</v>
+        <v>-0.0025953911211176748</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0057707719676295555</v>
+        <v>-0.0045910611544033126</v>
       </c>
       <c r="I6" s="0">
-        <v>0.036226982456149387</v>
+        <v>-0.024667450051326308</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.017067997330431406</v>
+        <v>0.0053588000939122082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36574265493211805</v>
+        <v>0.12511895965927544</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.091615743743389919</v>
+        <v>0.12049202289886589</v>
       </c>
       <c r="E7" s="0">
-        <v>0.076794879920515882</v>
+        <v>0.024566361746090667</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.081380908474340458</v>
+        <v>-0.24120544161955054</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0082764948607151907</v>
+        <v>-0.026276556702358289</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.0006003735989956394</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0034249364834447169</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0098795809411994506</v>
+        <v>-0.047947970022382769</v>
       </c>
     </row>
     <row r="8">
